--- a/2023-NHA-TRANG-Data-Analytics-for-Managers/Bao-Hiem/raw/1-RM-Ha.xlsx
+++ b/2023-NHA-TRANG-Data-Analytics-for-Managers/Bao-Hiem/raw/1-RM-Ha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Lectures\2023-NHA-TRANG-Data-Analytics-for-Managers\Bao-Hiem\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD2A70C-A681-4791-83D6-4D995F740763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679FD83E-3485-4AF6-8E51-D15D0C1D34D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-8550" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{10B5EDF1-7213-4714-A16C-DAF877EE2D0B}"/>
+    <workbookView xWindow="28680" yWindow="-8550" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{10B5EDF1-7213-4714-A16C-DAF877EE2D0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sale" sheetId="3" r:id="rId1"/>
@@ -34,6 +34,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">DAO!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'RM HÀ'!$A$4:$AB$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sale!$A$3:$X$3</definedName>
     <definedName name="asd" localSheetId="7">OFFSET(#REF!,0,0,COUNTA(#REF! )-COUNTIF(#REF!,""),1)</definedName>
     <definedName name="asd">OFFSET(#REF!,0,0,COUNTA(#REF! )-COUNTIF(#REF!,""),1)</definedName>
     <definedName name="BPHI_DT">"BPHI_DT"</definedName>
@@ -7153,7 +7154,7 @@
   <dimension ref="A1:X95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14130,6 +14131,7 @@
       <c r="V95" s="128"/>
     </row>
   </sheetData>
+  <autoFilter ref="A3:X3" xr:uid="{A7F5BDE1-79EF-4352-BFE4-88CF34869C41}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15304,7 +15306,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="N2" sqref="N2:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15313,6 +15315,7 @@
     <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15462,6 +15465,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15535,7 +15539,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DE2D23-AA3D-423C-89A2-5CCFA1B7414D}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -35744,7 +35750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CAA592-D3A8-4BAE-B7C1-71D59CB3BDDE}">
   <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>

--- a/2023-NHA-TRANG-Data-Analytics-for-Managers/Bao-Hiem/raw/1-RM-Ha.xlsx
+++ b/2023-NHA-TRANG-Data-Analytics-for-Managers/Bao-Hiem/raw/1-RM-Ha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Lectures\2023-NHA-TRANG-Data-Analytics-for-Managers\Bao-Hiem\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679FD83E-3485-4AF6-8E51-D15D0C1D34D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2792DCD-FBFA-411A-950C-B8AC0270346B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-8550" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{10B5EDF1-7213-4714-A16C-DAF877EE2D0B}"/>
+    <workbookView xWindow="28680" yWindow="-8550" windowWidth="29040" windowHeight="15720" xr2:uid="{10B5EDF1-7213-4714-A16C-DAF877EE2D0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sale" sheetId="3" r:id="rId1"/>
@@ -7153,8 +7153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F5BDE1-79EF-4352-BFE4-88CF34869C41}">
   <dimension ref="A1:X95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:BD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15539,7 +15539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DE2D23-AA3D-423C-89A2-5CCFA1B7414D}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/2023-NHA-TRANG-Data-Analytics-for-Managers/Bao-Hiem/raw/1-RM-Ha.xlsx
+++ b/2023-NHA-TRANG-Data-Analytics-for-Managers/Bao-Hiem/raw/1-RM-Ha.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Lectures\2023-NHA-TRANG-Data-Analytics-for-Managers\Bao-Hiem\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nam\Lectures\2023-NHA-TRANG-Data-Analytics-for-Managers\Bao-Hiem\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2792DCD-FBFA-411A-950C-B8AC0270346B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFB7447-0DB5-4FC7-BB55-1987AF7D7341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-8550" windowWidth="29040" windowHeight="15720" xr2:uid="{10B5EDF1-7213-4714-A16C-DAF877EE2D0B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="1" xr2:uid="{10B5EDF1-7213-4714-A16C-DAF877EE2D0B}"/>
   </bookViews>
   <sheets>
+    <sheet name="foxz" sheetId="11" state="veryHidden" r:id=""/>
     <sheet name="Sale" sheetId="3" r:id="rId1"/>
     <sheet name="KH" sheetId="1" r:id="rId2"/>
     <sheet name="Chung" sheetId="2" r:id="rId3"/>
@@ -32,48 +33,59 @@
     <externalReference r:id="rId15"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">DAO!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'RM HÀ'!$A$4:$AB$66</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sale!$A$3:$X$3</definedName>
-    <definedName name="asd" localSheetId="7">OFFSET(#REF!,0,0,COUNTA(#REF! )-COUNTIF(#REF!,""),1)</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">DAO!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'RM HÀ'!$A$4:$AB$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sale!$A$3:$X$3</definedName>
+    <definedName name="asd" localSheetId="8">OFFSET(#REF!,0,0,COUNTA(#REF! )-COUNTIF(#REF!,""),1)</definedName>
     <definedName name="asd">OFFSET(#REF!,0,0,COUNTA(#REF! )-COUNTIF(#REF!,""),1)</definedName>
     <definedName name="BPHI_DT">"BPHI_DT"</definedName>
-    <definedName name="BS" localSheetId="7">#REF!</definedName>
+    <definedName name="BS" localSheetId="8">#REF!</definedName>
     <definedName name="BS">#REF!</definedName>
     <definedName name="BSTT">"BSTT"</definedName>
     <definedName name="CD">[1]Sheet1!$A$2:$A$24</definedName>
-    <definedName name="CHUCVU" localSheetId="7">#REF!</definedName>
+    <definedName name="CHUCVU" localSheetId="8">#REF!</definedName>
     <definedName name="CHUCVU">#REF!</definedName>
-    <definedName name="dkdp" localSheetId="7">#REF!</definedName>
+    <definedName name="dkdp" localSheetId="8">#REF!</definedName>
     <definedName name="dkdp">#REF!</definedName>
-    <definedName name="FYMonthNo" localSheetId="7">IF('RM HÀ'!FYMonthStart="JAN",1,IF('RM HÀ'!FYMonthStart="FEB",2,IF('RM HÀ'!FYMonthStart="MAR",3,IF('RM HÀ'!FYMonthStart="APR",4,IF('RM HÀ'!FYMonthStart="MAY",5,IF('RM HÀ'!FYMonthStart="JUN",6,IF('RM HÀ'!FYMonthStart="JUL",7,IF('RM HÀ'!FYMonthStart="AUG",8,IF('RM HÀ'!FYMonthStart="SEP",9,IF('RM HÀ'!FYMonthStart="OCT",10,IF('RM HÀ'!FYMonthStart="NOV",11,12)))))))))))</definedName>
+    <definedName name="FYMonthNo" localSheetId="8">IF('RM HÀ'!FYMonthStart="JAN",1,IF('RM HÀ'!FYMonthStart="FEB",2,IF('RM HÀ'!FYMonthStart="MAR",3,IF('RM HÀ'!FYMonthStart="APR",4,IF('RM HÀ'!FYMonthStart="MAY",5,IF('RM HÀ'!FYMonthStart="JUN",6,IF('RM HÀ'!FYMonthStart="JUL",7,IF('RM HÀ'!FYMonthStart="AUG",8,IF('RM HÀ'!FYMonthStart="SEP",9,IF('RM HÀ'!FYMonthStart="OCT",10,IF('RM HÀ'!FYMonthStart="NOV",11,12)))))))))))</definedName>
     <definedName name="FYMonthNo">IF(FYMonthStart="JAN",1,IF(FYMonthStart="FEB",2,IF(FYMonthStart="MAR",3,IF(FYMonthStart="APR",4,IF(FYMonthStart="MAY",5,IF(FYMonthStart="JUN",6,IF(FYMonthStart="JUL",7,IF(FYMonthStart="AUG",8,IF(FYMonthStart="SEP",9,IF(FYMonthStart="OCT",10,IF(FYMonthStart="NOV",11,12)))))))))))</definedName>
-    <definedName name="FYMonthStart" localSheetId="7">'[2]Revenues (Sales)'!$F$2</definedName>
+    <definedName name="FYMonthStart" localSheetId="8">'[2]Revenues (Sales)'!$F$2</definedName>
     <definedName name="FYMonthStart">'[3]Revenues (Sales)'!$F$2</definedName>
-    <definedName name="FYStartYear" localSheetId="7">'[2]Revenues (Sales)'!$G$2</definedName>
+    <definedName name="FYStartYear" localSheetId="8">'[2]Revenues (Sales)'!$G$2</definedName>
     <definedName name="FYStartYear">'[3]Revenues (Sales)'!$G$2</definedName>
-    <definedName name="h" localSheetId="7">#REF!</definedName>
+    <definedName name="h" localSheetId="8">#REF!</definedName>
     <definedName name="h">#REF!</definedName>
-    <definedName name="NGocdiep" localSheetId="7">OFFSET(#REF!,0,0,COUNTA(#REF! )-COUNTIF(#REF!,""),1)</definedName>
+    <definedName name="NGocdiep" localSheetId="8">OFFSET(#REF!,0,0,COUNTA(#REF! )-COUNTIF(#REF!,""),1)</definedName>
     <definedName name="NGocdiep">OFFSET(#REF!,0,0,COUNTA(#REF! )-COUNTIF(#REF!,""),1)</definedName>
-    <definedName name="PENDING" localSheetId="7">#REF!</definedName>
+    <definedName name="PENDING" localSheetId="8">#REF!</definedName>
     <definedName name="PENDING">#REF!</definedName>
-    <definedName name="PhanloaiKHOCB" localSheetId="7">[4]Sheet2!$B$3:$B$6</definedName>
+    <definedName name="PhanloaiKHOCB" localSheetId="8">[4]Sheet2!$B$3:$B$6</definedName>
     <definedName name="PhanloaiKHOCB">[5]Sheet2!$B$3:$B$6</definedName>
     <definedName name="ss">OFFSET(#REF!,0,0,COUNTA(#REF! )-COUNTIF(#REF!,""),1)</definedName>
-    <definedName name="ssss" localSheetId="7">OFFSET(#REF!,0,0,COUNTA(#REF! )-COUNTIF(#REF!,""),1)</definedName>
+    <definedName name="ssss" localSheetId="8">OFFSET(#REF!,0,0,COUNTA(#REF! )-COUNTIF(#REF!,""),1)</definedName>
     <definedName name="ssss">OFFSET(#REF!,0,0,COUNTA(#REF! )-COUNTIF(#REF!,""),1)</definedName>
-    <definedName name="tuchoi" localSheetId="7">#REF!</definedName>
+    <definedName name="tuchoi" localSheetId="8">#REF!</definedName>
     <definedName name="tuchoi">#REF!</definedName>
-    <definedName name="Type" localSheetId="7">#REF!</definedName>
+    <definedName name="Type" localSheetId="8">#REF!</definedName>
     <definedName name="Type">#REF!</definedName>
-    <definedName name="Typevalist" localSheetId="7">OFFSET(#REF!,0,0,COUNTA(#REF! )-COUNTIF(#REF!,""),1)</definedName>
+    <definedName name="Typevalist" localSheetId="8">OFFSET(#REF!,0,0,COUNTA(#REF! )-COUNTIF(#REF!,""),1)</definedName>
     <definedName name="Typevalist">OFFSET(#REF!,0,0,COUNTA(#REF! )-COUNTIF(#REF!,""),1)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1763,10 +1775,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yy"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -2145,7 +2158,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="129">
@@ -2164,13 +2177,13 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2188,7 +2201,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2197,10 +2210,10 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2227,10 +2240,10 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2260,10 +2273,10 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="10" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="10" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2287,13 +2300,13 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2335,13 +2348,13 @@
     <xf numFmtId="0" fontId="14" fillId="13" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="13" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="13" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="13" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="13" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="13" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="13" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="13" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2362,13 +2375,13 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="13" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="13" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="13" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="13" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="13" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="13" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="13" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7151,10 +7164,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F5BDE1-79EF-4352-BFE4-88CF34869C41}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:BD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7374,7 +7388,7 @@
       </c>
       <c r="E4" s="4">
         <f>IFERROR(VLOOKUP(A4,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45050</v>
+        <v>45021</v>
       </c>
       <c r="F4" s="103" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A4,'RM HÀ'!A:V,7,0),""))</f>
@@ -7456,7 +7470,7 @@
       </c>
       <c r="E5" s="5">
         <f>IFERROR(VLOOKUP(A5,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45050</v>
+        <v>45021</v>
       </c>
       <c r="F5" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A5,'RM HÀ'!A:V,7,0),""))</f>
@@ -7537,7 +7551,7 @@
       </c>
       <c r="E6" s="5">
         <f>IFERROR(VLOOKUP(A6,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45050</v>
+        <v>45021</v>
       </c>
       <c r="F6" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A6,'RM HÀ'!A:V,7,0),""))</f>
@@ -7618,7 +7632,7 @@
       </c>
       <c r="E7" s="5">
         <f>IFERROR(VLOOKUP(A7,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45050</v>
+        <v>45021</v>
       </c>
       <c r="F7" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A7,'RM HÀ'!A:V,7,0),""))</f>
@@ -7699,7 +7713,7 @@
       </c>
       <c r="E8" s="5">
         <f>IFERROR(VLOOKUP(A8,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45078</v>
+        <v>44932</v>
       </c>
       <c r="F8" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A8,'RM HÀ'!A:V,7,0),""))</f>
@@ -7780,7 +7794,7 @@
       </c>
       <c r="E9" s="5">
         <f>IFERROR(VLOOKUP(A9,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45078</v>
+        <v>44932</v>
       </c>
       <c r="F9" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A9,'RM HÀ'!A:V,7,0),""))</f>
@@ -7861,7 +7875,7 @@
       </c>
       <c r="E10" s="5">
         <f>IFERROR(VLOOKUP(A10,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45078</v>
+        <v>44932</v>
       </c>
       <c r="F10" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A10,'RM HÀ'!A:V,7,0),""))</f>
@@ -7942,7 +7956,7 @@
       </c>
       <c r="E11" s="5">
         <f>IFERROR(VLOOKUP(A11,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45079</v>
+        <v>44963</v>
       </c>
       <c r="F11" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A11,'RM HÀ'!A:V,7,0),""))</f>
@@ -8023,7 +8037,7 @@
       </c>
       <c r="E12" s="5">
         <f>IFERROR(VLOOKUP(A12,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45079</v>
+        <v>44963</v>
       </c>
       <c r="F12" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A12,'RM HÀ'!A:V,7,0),""))</f>
@@ -8104,7 +8118,7 @@
       </c>
       <c r="E13" s="5">
         <f>IFERROR(VLOOKUP(A13,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45082</v>
+        <v>45052</v>
       </c>
       <c r="F13" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A13,'RM HÀ'!A:V,7,0),""))</f>
@@ -8185,7 +8199,7 @@
       </c>
       <c r="E14" s="5">
         <f>IFERROR(VLOOKUP(A14,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45082</v>
+        <v>45052</v>
       </c>
       <c r="F14" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A14,'RM HÀ'!A:V,7,0),""))</f>
@@ -8266,7 +8280,7 @@
       </c>
       <c r="E15" s="5">
         <f>IFERROR(VLOOKUP(A15,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45082</v>
+        <v>45052</v>
       </c>
       <c r="F15" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A15,'RM HÀ'!A:V,7,0),""))</f>
@@ -8347,7 +8361,7 @@
       </c>
       <c r="E16" s="5">
         <f>IFERROR(VLOOKUP(A16,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45082</v>
+        <v>45052</v>
       </c>
       <c r="F16" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A16,'RM HÀ'!A:V,7,0),""))</f>
@@ -9076,7 +9090,7 @@
       </c>
       <c r="E25" s="5">
         <f>IFERROR(VLOOKUP(A25,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45084</v>
+        <v>45113</v>
       </c>
       <c r="F25" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A25,'RM HÀ'!A:V,7,0),""))</f>
@@ -9157,7 +9171,7 @@
       </c>
       <c r="E26" s="5">
         <f>IFERROR(VLOOKUP(A26,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45084</v>
+        <v>45113</v>
       </c>
       <c r="F26" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A26,'RM HÀ'!A:V,7,0),""))</f>
@@ -9238,7 +9252,7 @@
       </c>
       <c r="E27" s="5">
         <f>IFERROR(VLOOKUP(A27,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45084</v>
+        <v>45113</v>
       </c>
       <c r="F27" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A27,'RM HÀ'!A:V,7,0),""))</f>
@@ -9319,7 +9333,7 @@
       </c>
       <c r="E28" s="5">
         <f>IFERROR(VLOOKUP(A28,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45084</v>
+        <v>45113</v>
       </c>
       <c r="F28" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A28,'RM HÀ'!A:V,7,0),""))</f>
@@ -9400,7 +9414,7 @@
       </c>
       <c r="E29" s="5">
         <f>IFERROR(VLOOKUP(A29,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45084</v>
+        <v>45113</v>
       </c>
       <c r="F29" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A29,'RM HÀ'!A:V,7,0),""))</f>
@@ -9481,7 +9495,7 @@
       </c>
       <c r="E30" s="5">
         <f>IFERROR(VLOOKUP(A30,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45084</v>
+        <v>45113</v>
       </c>
       <c r="F30" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A30,'RM HÀ'!A:V,7,0),""))</f>
@@ -9562,7 +9576,7 @@
       </c>
       <c r="E31" s="5">
         <f>IFERROR(VLOOKUP(A31,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45084</v>
+        <v>45113</v>
       </c>
       <c r="F31" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A31,'RM HÀ'!A:V,7,0),""))</f>
@@ -9643,7 +9657,7 @@
       </c>
       <c r="E32" s="5">
         <f>IFERROR(VLOOKUP(A32,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45084</v>
+        <v>45113</v>
       </c>
       <c r="F32" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A32,'RM HÀ'!A:V,7,0),""))</f>
@@ -9724,7 +9738,7 @@
       </c>
       <c r="E33" s="5">
         <f>IFERROR(VLOOKUP(A33,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45084</v>
+        <v>45113</v>
       </c>
       <c r="F33" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A33,'RM HÀ'!A:V,7,0),""))</f>
@@ -9805,7 +9819,7 @@
       </c>
       <c r="E34" s="5">
         <f>IFERROR(VLOOKUP(A34,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45085</v>
+        <v>45144</v>
       </c>
       <c r="F34" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A34,'RM HÀ'!A:V,7,0),""))</f>
@@ -9886,7 +9900,7 @@
       </c>
       <c r="E35" s="5">
         <f>IFERROR(VLOOKUP(A35,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45085</v>
+        <v>45144</v>
       </c>
       <c r="F35" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A35,'RM HÀ'!A:V,7,0),""))</f>
@@ -9967,7 +9981,7 @@
       </c>
       <c r="E36" s="5">
         <f>IFERROR(VLOOKUP(A36,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45085</v>
+        <v>45144</v>
       </c>
       <c r="F36" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A36,'RM HÀ'!A:V,7,0),""))</f>
@@ -10048,7 +10062,7 @@
       </c>
       <c r="E37" s="5">
         <f>IFERROR(VLOOKUP(A37,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45085</v>
+        <v>45144</v>
       </c>
       <c r="F37" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A37,'RM HÀ'!A:V,7,0),""))</f>
@@ -10129,7 +10143,7 @@
       </c>
       <c r="E38" s="5">
         <f>IFERROR(VLOOKUP(A38,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45085</v>
+        <v>45144</v>
       </c>
       <c r="F38" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A38,'RM HÀ'!A:V,7,0),""))</f>
@@ -10210,7 +10224,7 @@
       </c>
       <c r="E39" s="5">
         <f>IFERROR(VLOOKUP(A39,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45085</v>
+        <v>45144</v>
       </c>
       <c r="F39" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A39,'RM HÀ'!A:V,7,0),""))</f>
@@ -10291,7 +10305,7 @@
       </c>
       <c r="E40" s="5">
         <f>IFERROR(VLOOKUP(A40,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45085</v>
+        <v>45144</v>
       </c>
       <c r="F40" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A40,'RM HÀ'!A:V,7,0),""))</f>
@@ -10372,7 +10386,7 @@
       </c>
       <c r="E41" s="5">
         <f>IFERROR(VLOOKUP(A41,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45085</v>
+        <v>45144</v>
       </c>
       <c r="F41" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A41,'RM HÀ'!A:V,7,0),""))</f>
@@ -10453,7 +10467,7 @@
       </c>
       <c r="E42" s="5">
         <f>IFERROR(VLOOKUP(A42,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45085</v>
+        <v>45144</v>
       </c>
       <c r="F42" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A42,'RM HÀ'!A:V,7,0),""))</f>
@@ -10534,7 +10548,7 @@
       </c>
       <c r="E43" s="5">
         <f>IFERROR(VLOOKUP(A43,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45086</v>
+        <v>45175</v>
       </c>
       <c r="F43" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A43,'RM HÀ'!A:V,7,0),""))</f>
@@ -10615,7 +10629,7 @@
       </c>
       <c r="E44" s="5">
         <f>IFERROR(VLOOKUP(A44,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45086</v>
+        <v>45175</v>
       </c>
       <c r="F44" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A44,'RM HÀ'!A:V,7,0),""))</f>
@@ -10696,7 +10710,7 @@
       </c>
       <c r="E45" s="5">
         <f>IFERROR(VLOOKUP(A45,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45086</v>
+        <v>45175</v>
       </c>
       <c r="F45" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A45,'RM HÀ'!A:V,7,0),""))</f>
@@ -10777,7 +10791,7 @@
       </c>
       <c r="E46" s="5">
         <f>IFERROR(VLOOKUP(A46,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45086</v>
+        <v>45175</v>
       </c>
       <c r="F46" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A46,'RM HÀ'!A:V,7,0),""))</f>
@@ -10858,7 +10872,7 @@
       </c>
       <c r="E47" s="5">
         <f>IFERROR(VLOOKUP(A47,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45089</v>
+        <v>45266</v>
       </c>
       <c r="F47" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A47,'RM HÀ'!A:V,7,0),""))</f>
@@ -10939,7 +10953,7 @@
       </c>
       <c r="E48" s="5">
         <f>IFERROR(VLOOKUP(A48,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45078</v>
+        <v>44932</v>
       </c>
       <c r="F48" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A48,'RM HÀ'!A:V,7,0),""))</f>
@@ -11020,7 +11034,7 @@
       </c>
       <c r="E49" s="5">
         <f>IFERROR(VLOOKUP(A49,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45078</v>
+        <v>44932</v>
       </c>
       <c r="F49" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A49,'RM HÀ'!A:V,7,0),""))</f>
@@ -11101,7 +11115,7 @@
       </c>
       <c r="E50" s="5">
         <f>IFERROR(VLOOKUP(A50,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45084</v>
+        <v>45113</v>
       </c>
       <c r="F50" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A50,'RM HÀ'!A:V,7,0),""))</f>
@@ -11182,7 +11196,7 @@
       </c>
       <c r="E51" s="5">
         <f>IFERROR(VLOOKUP(A51,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45089</v>
+        <v>45266</v>
       </c>
       <c r="F51" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A51,'RM HÀ'!A:V,7,0),""))</f>
@@ -11263,7 +11277,7 @@
       </c>
       <c r="E52" s="5">
         <f>IFERROR(VLOOKUP(A52,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45089</v>
+        <v>45266</v>
       </c>
       <c r="F52" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A52,'RM HÀ'!A:V,7,0),""))</f>
@@ -11344,7 +11358,7 @@
       </c>
       <c r="E53" s="5">
         <f>IFERROR(VLOOKUP(A53,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45089</v>
+        <v>45266</v>
       </c>
       <c r="F53" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A53,'RM HÀ'!A:V,7,0),""))</f>
@@ -11425,7 +11439,7 @@
       </c>
       <c r="E54" s="5">
         <f>IFERROR(VLOOKUP(A54,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45089</v>
+        <v>45266</v>
       </c>
       <c r="F54" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A54,'RM HÀ'!A:V,7,0),""))</f>
@@ -11506,7 +11520,7 @@
       </c>
       <c r="E55" s="5">
         <f>IFERROR(VLOOKUP(A55,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45089</v>
+        <v>45266</v>
       </c>
       <c r="F55" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A55,'RM HÀ'!A:V,7,0),""))</f>
@@ -11587,7 +11601,7 @@
       </c>
       <c r="E56" s="5">
         <f>IFERROR(VLOOKUP(A56,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45089</v>
+        <v>45266</v>
       </c>
       <c r="F56" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A56,'RM HÀ'!A:V,7,0),""))</f>
@@ -11668,7 +11682,7 @@
       </c>
       <c r="E57" s="5">
         <f>IFERROR(VLOOKUP(A57,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45089</v>
+        <v>45266</v>
       </c>
       <c r="F57" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A57,'RM HÀ'!A:V,7,0),""))</f>
@@ -11747,9 +11761,9 @@
         <f>IF(YEAR(IFERROR(VLOOKUP(A58,KH!A:N,4,0),""))&gt;1905,YEAR(IFERROR(VLOOKUP(A58,KH!A:N,4,0),"")),IFERROR(VLOOKUP(A58,KH!A:N,4,0),""))</f>
         <v>1979</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="5" t="str">
         <f>IFERROR(VLOOKUP(A58,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45090</v>
+        <v/>
       </c>
       <c r="F58" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A58,'RM HÀ'!A:V,7,0),""))</f>
@@ -11828,9 +11842,9 @@
         <f>IF(YEAR(IFERROR(VLOOKUP(A59,KH!A:N,4,0),""))&gt;1905,YEAR(IFERROR(VLOOKUP(A59,KH!A:N,4,0),"")),IFERROR(VLOOKUP(A59,KH!A:N,4,0),""))</f>
         <v>1980</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="5" t="str">
         <f>IFERROR(VLOOKUP(A59,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45090</v>
+        <v/>
       </c>
       <c r="F59" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A59,'RM HÀ'!A:V,7,0),""))</f>
@@ -11909,9 +11923,9 @@
         <f>IF(YEAR(IFERROR(VLOOKUP(A60,KH!A:N,4,0),""))&gt;1905,YEAR(IFERROR(VLOOKUP(A60,KH!A:N,4,0),"")),IFERROR(VLOOKUP(A60,KH!A:N,4,0),""))</f>
         <v>1977</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="5" t="str">
         <f>IFERROR(VLOOKUP(A60,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45090</v>
+        <v/>
       </c>
       <c r="F60" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A60,'RM HÀ'!A:V,7,0),""))</f>
@@ -11990,9 +12004,9 @@
         <f>IF(YEAR(IFERROR(VLOOKUP(A61,KH!A:N,4,0),""))&gt;1905,YEAR(IFERROR(VLOOKUP(A61,KH!A:N,4,0),"")),IFERROR(VLOOKUP(A61,KH!A:N,4,0),""))</f>
         <v>1984</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="5" t="str">
         <f>IFERROR(VLOOKUP(A61,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45090</v>
+        <v/>
       </c>
       <c r="F61" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A61,'RM HÀ'!A:V,7,0),""))</f>
@@ -12071,9 +12085,9 @@
         <f>IF(YEAR(IFERROR(VLOOKUP(A62,KH!A:N,4,0),""))&gt;1905,YEAR(IFERROR(VLOOKUP(A62,KH!A:N,4,0),"")),IFERROR(VLOOKUP(A62,KH!A:N,4,0),""))</f>
         <v>2000</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="5" t="str">
         <f>IFERROR(VLOOKUP(A62,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45090</v>
+        <v/>
       </c>
       <c r="F62" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A62,'RM HÀ'!A:V,7,0),""))</f>
@@ -12152,9 +12166,9 @@
         <f>IF(YEAR(IFERROR(VLOOKUP(A63,KH!A:N,4,0),""))&gt;1905,YEAR(IFERROR(VLOOKUP(A63,KH!A:N,4,0),"")),IFERROR(VLOOKUP(A63,KH!A:N,4,0),""))</f>
         <v>1995</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="5" t="str">
         <f>IFERROR(VLOOKUP(A63,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45090</v>
+        <v/>
       </c>
       <c r="F63" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A63,'RM HÀ'!A:V,7,0),""))</f>
@@ -12233,9 +12247,9 @@
         <f>IF(YEAR(IFERROR(VLOOKUP(A64,KH!A:N,4,0),""))&gt;1905,YEAR(IFERROR(VLOOKUP(A64,KH!A:N,4,0),"")),IFERROR(VLOOKUP(A64,KH!A:N,4,0),""))</f>
         <v>1988</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="5" t="str">
         <f>IFERROR(VLOOKUP(A64,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45090</v>
+        <v/>
       </c>
       <c r="F64" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A64,'RM HÀ'!A:V,7,0),""))</f>
@@ -12314,9 +12328,9 @@
         <f>IF(YEAR(IFERROR(VLOOKUP(A65,KH!A:N,4,0),""))&gt;1905,YEAR(IFERROR(VLOOKUP(A65,KH!A:N,4,0),"")),IFERROR(VLOOKUP(A65,KH!A:N,4,0),""))</f>
         <v>1969</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="5" t="str">
         <f>IFERROR(VLOOKUP(A65,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45090</v>
+        <v/>
       </c>
       <c r="F65" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A65,'RM HÀ'!A:V,7,0),""))</f>
@@ -12395,9 +12409,9 @@
         <f>IF(YEAR(IFERROR(VLOOKUP(A66,KH!A:N,4,0),""))&gt;1905,YEAR(IFERROR(VLOOKUP(A66,KH!A:N,4,0),"")),IFERROR(VLOOKUP(A66,KH!A:N,4,0),""))</f>
         <v>1982</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="5" t="str">
         <f>IFERROR(VLOOKUP(A66,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45091</v>
+        <v/>
       </c>
       <c r="F66" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A66,'RM HÀ'!A:V,7,0),""))</f>
@@ -12476,9 +12490,9 @@
         <f>IF(YEAR(IFERROR(VLOOKUP(A67,KH!A:N,4,0),""))&gt;1905,YEAR(IFERROR(VLOOKUP(A67,KH!A:N,4,0),"")),IFERROR(VLOOKUP(A67,KH!A:N,4,0),""))</f>
         <v>1980</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67" s="5" t="str">
         <f>IFERROR(VLOOKUP(A67,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45091</v>
+        <v/>
       </c>
       <c r="F67" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A67,'RM HÀ'!A:V,7,0),""))</f>
@@ -12557,9 +12571,9 @@
         <f>IF(YEAR(IFERROR(VLOOKUP(A68,KH!A:N,4,0),""))&gt;1905,YEAR(IFERROR(VLOOKUP(A68,KH!A:N,4,0),"")),IFERROR(VLOOKUP(A68,KH!A:N,4,0),""))</f>
         <v>1970</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68" s="5" t="str">
         <f>IFERROR(VLOOKUP(A68,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45091</v>
+        <v/>
       </c>
       <c r="F68" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A68,'RM HÀ'!A:V,7,0),""))</f>
@@ -12638,9 +12652,9 @@
         <f>IF(YEAR(IFERROR(VLOOKUP(A69,KH!A:N,4,0),""))&gt;1905,YEAR(IFERROR(VLOOKUP(A69,KH!A:N,4,0),"")),IFERROR(VLOOKUP(A69,KH!A:N,4,0),""))</f>
         <v>1966</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69" s="5" t="str">
         <f>IFERROR(VLOOKUP(A69,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45091</v>
+        <v/>
       </c>
       <c r="F69" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A69,'RM HÀ'!A:V,7,0),""))</f>
@@ -12719,9 +12733,9 @@
         <f>IF(YEAR(IFERROR(VLOOKUP(A70,KH!A:N,4,0),""))&gt;1905,YEAR(IFERROR(VLOOKUP(A70,KH!A:N,4,0),"")),IFERROR(VLOOKUP(A70,KH!A:N,4,0),""))</f>
         <v>1985</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="5" t="str">
         <f>IFERROR(VLOOKUP(A70,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45091</v>
+        <v/>
       </c>
       <c r="F70" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A70,'RM HÀ'!A:V,7,0),""))</f>
@@ -12800,9 +12814,9 @@
         <f>IF(YEAR(IFERROR(VLOOKUP(A71,KH!A:N,4,0),""))&gt;1905,YEAR(IFERROR(VLOOKUP(A71,KH!A:N,4,0),"")),IFERROR(VLOOKUP(A71,KH!A:N,4,0),""))</f>
         <v>2004</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="5" t="str">
         <f>IFERROR(VLOOKUP(A71,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45092</v>
+        <v/>
       </c>
       <c r="F71" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A71,'RM HÀ'!A:V,7,0),""))</f>
@@ -12881,9 +12895,9 @@
         <f>IF(YEAR(IFERROR(VLOOKUP(A72,KH!A:N,4,0),""))&gt;1905,YEAR(IFERROR(VLOOKUP(A72,KH!A:N,4,0),"")),IFERROR(VLOOKUP(A72,KH!A:N,4,0),""))</f>
         <v>1984</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="5" t="str">
         <f>IFERROR(VLOOKUP(A72,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45092</v>
+        <v/>
       </c>
       <c r="F72" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A72,'RM HÀ'!A:V,7,0),""))</f>
@@ -12962,9 +12976,9 @@
         <f>IF(YEAR(IFERROR(VLOOKUP(A73,KH!A:N,4,0),""))&gt;1905,YEAR(IFERROR(VLOOKUP(A73,KH!A:N,4,0),"")),IFERROR(VLOOKUP(A73,KH!A:N,4,0),""))</f>
         <v>1958</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E73" s="5" t="str">
         <f>IFERROR(VLOOKUP(A73,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45093</v>
+        <v/>
       </c>
       <c r="F73" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A73,'RM HÀ'!A:V,7,0),""))</f>
@@ -13043,9 +13057,9 @@
         <f>IF(YEAR(IFERROR(VLOOKUP(A74,KH!A:N,4,0),""))&gt;1905,YEAR(IFERROR(VLOOKUP(A74,KH!A:N,4,0),"")),IFERROR(VLOOKUP(A74,KH!A:N,4,0),""))</f>
         <v>1995</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E74" s="5" t="str">
         <f>IFERROR(VLOOKUP(A74,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45093</v>
+        <v/>
       </c>
       <c r="F74" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A74,'RM HÀ'!A:V,7,0),""))</f>
@@ -13124,9 +13138,9 @@
         <f>IF(YEAR(IFERROR(VLOOKUP(A75,KH!A:N,4,0),""))&gt;1905,YEAR(IFERROR(VLOOKUP(A75,KH!A:N,4,0),"")),IFERROR(VLOOKUP(A75,KH!A:N,4,0),""))</f>
         <v>1980</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="5" t="str">
         <f>IFERROR(VLOOKUP(A75,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45093</v>
+        <v/>
       </c>
       <c r="F75" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A75,'RM HÀ'!A:V,7,0),""))</f>
@@ -13205,9 +13219,9 @@
         <f>IF(YEAR(IFERROR(VLOOKUP(A76,KH!A:N,4,0),""))&gt;1905,YEAR(IFERROR(VLOOKUP(A76,KH!A:N,4,0),"")),IFERROR(VLOOKUP(A76,KH!A:N,4,0),""))</f>
         <v>1960</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="5" t="str">
         <f>IFERROR(VLOOKUP(A76,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45093</v>
+        <v/>
       </c>
       <c r="F76" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A76,'RM HÀ'!A:V,7,0),""))</f>
@@ -13286,9 +13300,9 @@
         <f>IF(YEAR(IFERROR(VLOOKUP(A77,KH!A:N,4,0),""))&gt;1905,YEAR(IFERROR(VLOOKUP(A77,KH!A:N,4,0),"")),IFERROR(VLOOKUP(A77,KH!A:N,4,0),""))</f>
         <v>1984</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="5" t="str">
         <f>IFERROR(VLOOKUP(A77,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45093</v>
+        <v/>
       </c>
       <c r="F77" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A77,'RM HÀ'!A:V,7,0),""))</f>
@@ -13367,9 +13381,9 @@
         <f>IF(YEAR(IFERROR(VLOOKUP(A78,KH!A:N,4,0),""))&gt;1905,YEAR(IFERROR(VLOOKUP(A78,KH!A:N,4,0),"")),IFERROR(VLOOKUP(A78,KH!A:N,4,0),""))</f>
         <v>1983</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="5" t="str">
         <f>IFERROR(VLOOKUP(A78,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45093</v>
+        <v/>
       </c>
       <c r="F78" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A78,'RM HÀ'!A:V,7,0),""))</f>
@@ -13448,9 +13462,9 @@
         <f>IF(YEAR(IFERROR(VLOOKUP(A79,KH!A:N,4,0),""))&gt;1905,YEAR(IFERROR(VLOOKUP(A79,KH!A:N,4,0),"")),IFERROR(VLOOKUP(A79,KH!A:N,4,0),""))</f>
         <v>1975</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="5" t="str">
         <f>IFERROR(VLOOKUP(A79,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45093</v>
+        <v/>
       </c>
       <c r="F79" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A79,'RM HÀ'!A:V,7,0),""))</f>
@@ -13529,9 +13543,9 @@
         <f>IF(YEAR(IFERROR(VLOOKUP(A80,KH!A:N,4,0),""))&gt;1905,YEAR(IFERROR(VLOOKUP(A80,KH!A:N,4,0),"")),IFERROR(VLOOKUP(A80,KH!A:N,4,0),""))</f>
         <v>1960</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="5" t="str">
         <f>IFERROR(VLOOKUP(A80,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45093</v>
+        <v/>
       </c>
       <c r="F80" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A80,'RM HÀ'!A:V,7,0),""))</f>
@@ -13610,9 +13624,9 @@
         <f>IF(YEAR(IFERROR(VLOOKUP(A81,KH!A:N,4,0),""))&gt;1905,YEAR(IFERROR(VLOOKUP(A81,KH!A:N,4,0),"")),IFERROR(VLOOKUP(A81,KH!A:N,4,0),""))</f>
         <v>1986</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="5" t="str">
         <f>IFERROR(VLOOKUP(A81,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45093</v>
+        <v/>
       </c>
       <c r="F81" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A81,'RM HÀ'!A:V,7,0),""))</f>
@@ -13691,9 +13705,9 @@
         <f>IF(YEAR(IFERROR(VLOOKUP(A82,KH!A:N,4,0),""))&gt;1905,YEAR(IFERROR(VLOOKUP(A82,KH!A:N,4,0),"")),IFERROR(VLOOKUP(A82,KH!A:N,4,0),""))</f>
         <v>1982</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="5" t="str">
         <f>IFERROR(VLOOKUP(A82,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45093</v>
+        <v/>
       </c>
       <c r="F82" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A82,'RM HÀ'!A:V,7,0),""))</f>
@@ -13772,9 +13786,9 @@
         <f>IF(YEAR(IFERROR(VLOOKUP(A83,KH!A:N,4,0),""))&gt;1905,YEAR(IFERROR(VLOOKUP(A83,KH!A:N,4,0),"")),IFERROR(VLOOKUP(A83,KH!A:N,4,0),""))</f>
         <v>1972</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E83" s="5" t="str">
         <f>IFERROR(VLOOKUP(A83,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45096</v>
+        <v/>
       </c>
       <c r="F83" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A83,'RM HÀ'!A:V,7,0),""))</f>
@@ -13853,9 +13867,9 @@
         <f>IF(YEAR(IFERROR(VLOOKUP(A84,KH!A:N,4,0),""))&gt;1905,YEAR(IFERROR(VLOOKUP(A84,KH!A:N,4,0),"")),IFERROR(VLOOKUP(A84,KH!A:N,4,0),""))</f>
         <v>1986</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="5" t="str">
         <f>IFERROR(VLOOKUP(A84,'RM HÀ'!A:V,6,0),"")</f>
-        <v>45096</v>
+        <v/>
       </c>
       <c r="F84" s="107" t="str">
         <f>PROPER(IFERROR(VLOOKUP(A84,'RM HÀ'!A:V,7,0),""))</f>
@@ -14164,6 +14178,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B5C5CF-0811-4732-8AEF-650F5F3D7D11}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15303,6 +15318,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF6E4B1-6A5F-4978-AE6B-939DCBE69817}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15471,6 +15487,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB17A53-3247-48AF-8D78-171422CA9B4C}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15505,6 +15522,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D1C355-158B-4291-967E-E72E451CF2C5}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15517,6 +15535,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B2B753-8E58-4551-9337-DA65CE180ACE}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15537,6 +15556,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DE2D23-AA3D-423C-89A2-5CCFA1B7414D}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15598,6 +15618,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803175FE-20A1-40E3-BCA1-979430399F33}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AC1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15825,7 +15846,7 @@
       </c>
       <c r="F5" s="29">
         <f>DATEVALUE(CONCATENATE(D5,"/",E5, "/",2023))</f>
-        <v>45050</v>
+        <v>45021</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>118</v>
@@ -15893,7 +15914,7 @@
       </c>
       <c r="F6" s="29">
         <f t="shared" ref="F6:F69" si="0">DATEVALUE(CONCATENATE(D6,"/",E6, "/",2023))</f>
-        <v>45050</v>
+        <v>45021</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>122</v>
@@ -15955,7 +15976,7 @@
       </c>
       <c r="F7" s="29">
         <f t="shared" si="0"/>
-        <v>45050</v>
+        <v>45021</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>122</v>
@@ -16021,7 +16042,7 @@
       </c>
       <c r="F8" s="29">
         <f t="shared" si="0"/>
-        <v>45050</v>
+        <v>45021</v>
       </c>
       <c r="G8" s="26" t="s">
         <v>118</v>
@@ -16087,7 +16108,7 @@
       </c>
       <c r="F9" s="29">
         <f t="shared" si="0"/>
-        <v>45078</v>
+        <v>44932</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>132</v>
@@ -16157,7 +16178,7 @@
       </c>
       <c r="F10" s="29">
         <f t="shared" si="0"/>
-        <v>45078</v>
+        <v>44932</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>122</v>
@@ -18483,7 +18504,7 @@
       </c>
       <c r="F67" s="29">
         <f t="shared" si="0"/>
-        <v>45078</v>
+        <v>44932</v>
       </c>
       <c r="G67" s="26" t="s">
         <v>118</v>
@@ -18553,7 +18574,7 @@
       </c>
       <c r="F68" s="29">
         <f t="shared" si="0"/>
-        <v>45079</v>
+        <v>44963</v>
       </c>
       <c r="G68" s="26" t="s">
         <v>154</v>
@@ -18623,7 +18644,7 @@
       </c>
       <c r="F69" s="29">
         <f t="shared" si="0"/>
-        <v>45079</v>
+        <v>44963</v>
       </c>
       <c r="G69" s="26" t="s">
         <v>160</v>
@@ -18693,7 +18714,7 @@
       </c>
       <c r="F70" s="29">
         <f t="shared" ref="F70:F133" si="1">DATEVALUE(CONCATENATE(D70,"/",E70, "/",2023))</f>
-        <v>45082</v>
+        <v>45052</v>
       </c>
       <c r="G70" s="26" t="s">
         <v>160</v>
@@ -18763,7 +18784,7 @@
       </c>
       <c r="F71" s="29">
         <f t="shared" si="1"/>
-        <v>45082</v>
+        <v>45052</v>
       </c>
       <c r="G71" s="26" t="s">
         <v>118</v>
@@ -18833,7 +18854,7 @@
       </c>
       <c r="F72" s="29">
         <f t="shared" si="1"/>
-        <v>45082</v>
+        <v>45052</v>
       </c>
       <c r="G72" s="26" t="s">
         <v>122</v>
@@ -18903,7 +18924,7 @@
       </c>
       <c r="F73" s="29">
         <f t="shared" si="1"/>
-        <v>45082</v>
+        <v>45052</v>
       </c>
       <c r="G73" s="26" t="s">
         <v>160</v>
@@ -19531,7 +19552,7 @@
       </c>
       <c r="F82" s="29">
         <f t="shared" si="1"/>
-        <v>45084</v>
+        <v>45113</v>
       </c>
       <c r="G82" s="26" t="s">
         <v>160</v>
@@ -19601,7 +19622,7 @@
       </c>
       <c r="F83" s="29">
         <f t="shared" si="1"/>
-        <v>45084</v>
+        <v>45113</v>
       </c>
       <c r="G83" s="26" t="s">
         <v>160</v>
@@ -19671,7 +19692,7 @@
       </c>
       <c r="F84" s="29">
         <f t="shared" si="1"/>
-        <v>45084</v>
+        <v>45113</v>
       </c>
       <c r="G84" s="26" t="s">
         <v>160</v>
@@ -19741,7 +19762,7 @@
       </c>
       <c r="F85" s="29">
         <f t="shared" si="1"/>
-        <v>45084</v>
+        <v>45113</v>
       </c>
       <c r="G85" s="26" t="s">
         <v>122</v>
@@ -19811,7 +19832,7 @@
       </c>
       <c r="F86" s="29">
         <f t="shared" si="1"/>
-        <v>45084</v>
+        <v>45113</v>
       </c>
       <c r="G86" s="26" t="s">
         <v>122</v>
@@ -19879,7 +19900,7 @@
       </c>
       <c r="F87" s="29">
         <f t="shared" si="1"/>
-        <v>45084</v>
+        <v>45113</v>
       </c>
       <c r="G87" s="26" t="s">
         <v>122</v>
@@ -19947,7 +19968,7 @@
       </c>
       <c r="F88" s="29">
         <f t="shared" si="1"/>
-        <v>45084</v>
+        <v>45113</v>
       </c>
       <c r="G88" s="26" t="s">
         <v>154</v>
@@ -20015,7 +20036,7 @@
       </c>
       <c r="F89" s="29">
         <f t="shared" si="1"/>
-        <v>45084</v>
+        <v>45113</v>
       </c>
       <c r="G89" s="26" t="s">
         <v>154</v>
@@ -20085,7 +20106,7 @@
       </c>
       <c r="F90" s="29">
         <f t="shared" si="1"/>
-        <v>45084</v>
+        <v>45113</v>
       </c>
       <c r="G90" s="26" t="s">
         <v>154</v>
@@ -20155,7 +20176,7 @@
       </c>
       <c r="F91" s="29">
         <f t="shared" si="1"/>
-        <v>45085</v>
+        <v>45144</v>
       </c>
       <c r="G91" s="26" t="s">
         <v>160</v>
@@ -20225,7 +20246,7 @@
       </c>
       <c r="F92" s="29">
         <f t="shared" si="1"/>
-        <v>45085</v>
+        <v>45144</v>
       </c>
       <c r="G92" s="26" t="s">
         <v>160</v>
@@ -20295,7 +20316,7 @@
       </c>
       <c r="F93" s="29">
         <f t="shared" si="1"/>
-        <v>45085</v>
+        <v>45144</v>
       </c>
       <c r="G93" s="26" t="s">
         <v>160</v>
@@ -20365,7 +20386,7 @@
       </c>
       <c r="F94" s="29">
         <f t="shared" si="1"/>
-        <v>45085</v>
+        <v>45144</v>
       </c>
       <c r="G94" s="26" t="s">
         <v>160</v>
@@ -20435,7 +20456,7 @@
       </c>
       <c r="F95" s="29">
         <f t="shared" si="1"/>
-        <v>45085</v>
+        <v>45144</v>
       </c>
       <c r="G95" s="26" t="s">
         <v>160</v>
@@ -20505,7 +20526,7 @@
       </c>
       <c r="F96" s="29">
         <f t="shared" si="1"/>
-        <v>45085</v>
+        <v>45144</v>
       </c>
       <c r="G96" s="26" t="s">
         <v>122</v>
@@ -20573,7 +20594,7 @@
       </c>
       <c r="F97" s="29">
         <f t="shared" si="1"/>
-        <v>45085</v>
+        <v>45144</v>
       </c>
       <c r="G97" s="26" t="s">
         <v>122</v>
@@ -20643,7 +20664,7 @@
       </c>
       <c r="F98" s="29">
         <f t="shared" si="1"/>
-        <v>45085</v>
+        <v>45144</v>
       </c>
       <c r="G98" s="26" t="s">
         <v>160</v>
@@ -20713,7 +20734,7 @@
       </c>
       <c r="F99" s="29">
         <f t="shared" si="1"/>
-        <v>45085</v>
+        <v>45144</v>
       </c>
       <c r="G99" s="26" t="s">
         <v>122</v>
@@ -20783,7 +20804,7 @@
       </c>
       <c r="F100" s="29">
         <f t="shared" si="1"/>
-        <v>45086</v>
+        <v>45175</v>
       </c>
       <c r="G100" s="26" t="s">
         <v>160</v>
@@ -20851,7 +20872,7 @@
       </c>
       <c r="F101" s="29">
         <f t="shared" si="1"/>
-        <v>45086</v>
+        <v>45175</v>
       </c>
       <c r="G101" s="26" t="s">
         <v>160</v>
@@ -20919,7 +20940,7 @@
       </c>
       <c r="F102" s="29">
         <f t="shared" si="1"/>
-        <v>45086</v>
+        <v>45175</v>
       </c>
       <c r="G102" s="26" t="s">
         <v>160</v>
@@ -20989,7 +21010,7 @@
       </c>
       <c r="F103" s="29">
         <f t="shared" si="1"/>
-        <v>45086</v>
+        <v>45175</v>
       </c>
       <c r="G103" s="26" t="s">
         <v>160</v>
@@ -21059,7 +21080,7 @@
       </c>
       <c r="F104" s="29">
         <f t="shared" si="1"/>
-        <v>45089</v>
+        <v>45266</v>
       </c>
       <c r="G104" s="26" t="s">
         <v>160</v>
@@ -21129,7 +21150,7 @@
       </c>
       <c r="F105" s="29">
         <f t="shared" si="1"/>
-        <v>45078</v>
+        <v>44932</v>
       </c>
       <c r="G105" s="26" t="s">
         <v>122</v>
@@ -21199,7 +21220,7 @@
       </c>
       <c r="F106" s="29">
         <f t="shared" si="1"/>
-        <v>45078</v>
+        <v>44932</v>
       </c>
       <c r="G106" s="26" t="s">
         <v>122</v>
@@ -21269,7 +21290,7 @@
       </c>
       <c r="F107" s="29">
         <f t="shared" si="1"/>
-        <v>45084</v>
+        <v>45113</v>
       </c>
       <c r="G107" s="26" t="s">
         <v>122</v>
@@ -21339,7 +21360,7 @@
       </c>
       <c r="F108" s="29">
         <f t="shared" si="1"/>
-        <v>45089</v>
+        <v>45266</v>
       </c>
       <c r="G108" s="26" t="s">
         <v>122</v>
@@ -21409,7 +21430,7 @@
       </c>
       <c r="F109" s="29">
         <f t="shared" si="1"/>
-        <v>45089</v>
+        <v>45266</v>
       </c>
       <c r="G109" s="26" t="s">
         <v>154</v>
@@ -21479,7 +21500,7 @@
       </c>
       <c r="F110" s="29">
         <f t="shared" si="1"/>
-        <v>45089</v>
+        <v>45266</v>
       </c>
       <c r="G110" s="26" t="s">
         <v>160</v>
@@ -21547,7 +21568,7 @@
       </c>
       <c r="F111" s="29">
         <f t="shared" si="1"/>
-        <v>45089</v>
+        <v>45266</v>
       </c>
       <c r="G111" s="26" t="s">
         <v>160</v>
@@ -21617,7 +21638,7 @@
       </c>
       <c r="F112" s="29">
         <f t="shared" si="1"/>
-        <v>45089</v>
+        <v>45266</v>
       </c>
       <c r="G112" s="26" t="s">
         <v>160</v>
@@ -21687,7 +21708,7 @@
       </c>
       <c r="F113" s="29">
         <f t="shared" si="1"/>
-        <v>45089</v>
+        <v>45266</v>
       </c>
       <c r="G113" s="61" t="s">
         <v>160</v>
@@ -21759,7 +21780,7 @@
       </c>
       <c r="F114" s="29">
         <f t="shared" si="1"/>
-        <v>45089</v>
+        <v>45266</v>
       </c>
       <c r="G114" s="26" t="s">
         <v>160</v>
@@ -21825,9 +21846,9 @@
       <c r="E115" s="10">
         <v>6</v>
       </c>
-      <c r="F115" s="29">
+      <c r="F115" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>45090</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G115" s="26" t="s">
         <v>255</v>
@@ -21895,9 +21916,9 @@
       <c r="E116" s="10">
         <v>6</v>
       </c>
-      <c r="F116" s="29">
+      <c r="F116" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>45090</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G116" s="26" t="s">
         <v>160</v>
@@ -21965,9 +21986,9 @@
       <c r="E117" s="10">
         <v>6</v>
       </c>
-      <c r="F117" s="29">
+      <c r="F117" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>45090</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G117" s="26" t="s">
         <v>118</v>
@@ -22035,9 +22056,9 @@
       <c r="E118" s="10">
         <v>6</v>
       </c>
-      <c r="F118" s="29">
+      <c r="F118" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>45090</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G118" s="26" t="s">
         <v>160</v>
@@ -22105,9 +22126,9 @@
       <c r="E119" s="10">
         <v>6</v>
       </c>
-      <c r="F119" s="29">
+      <c r="F119" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>45090</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G119" s="26" t="s">
         <v>122</v>
@@ -22173,9 +22194,9 @@
       <c r="E120" s="10">
         <v>6</v>
       </c>
-      <c r="F120" s="29">
+      <c r="F120" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>45090</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G120" s="26" t="s">
         <v>122</v>
@@ -22245,9 +22266,9 @@
       <c r="E121" s="75">
         <v>6</v>
       </c>
-      <c r="F121" s="29">
+      <c r="F121" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>45090</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G121" s="70" t="s">
         <v>160</v>
@@ -22313,9 +22334,9 @@
       <c r="E122" s="10">
         <v>6</v>
       </c>
-      <c r="F122" s="29">
+      <c r="F122" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>45090</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G122" s="26" t="s">
         <v>118</v>
@@ -22385,9 +22406,9 @@
       <c r="E123" s="10">
         <v>6</v>
       </c>
-      <c r="F123" s="29">
+      <c r="F123" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>45091</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G123" s="26" t="s">
         <v>160</v>
@@ -22455,9 +22476,9 @@
       <c r="E124" s="10">
         <v>6</v>
       </c>
-      <c r="F124" s="29">
+      <c r="F124" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>45091</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G124" s="26" t="s">
         <v>122</v>
@@ -22525,9 +22546,9 @@
       <c r="E125" s="10">
         <v>6</v>
       </c>
-      <c r="F125" s="29">
+      <c r="F125" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>45091</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G125" s="26" t="s">
         <v>122</v>
@@ -22595,9 +22616,9 @@
       <c r="E126" s="10">
         <v>6</v>
       </c>
-      <c r="F126" s="29">
+      <c r="F126" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>45091</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G126" s="26" t="s">
         <v>122</v>
@@ -22665,9 +22686,9 @@
       <c r="E127" s="10">
         <v>6</v>
       </c>
-      <c r="F127" s="29">
+      <c r="F127" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>45091</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G127" s="26" t="s">
         <v>154</v>
@@ -22735,9 +22756,9 @@
       <c r="E128" s="10">
         <v>6</v>
       </c>
-      <c r="F128" s="29">
+      <c r="F128" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>45092</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G128" s="26" t="s">
         <v>122</v>
@@ -22805,9 +22826,9 @@
       <c r="E129" s="10">
         <v>6</v>
       </c>
-      <c r="F129" s="29">
+      <c r="F129" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>45092</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G129" s="26" t="s">
         <v>122</v>
@@ -22875,9 +22896,9 @@
       <c r="E130" s="10">
         <v>6</v>
       </c>
-      <c r="F130" s="29">
+      <c r="F130" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>45093</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G130" s="26" t="s">
         <v>122</v>
@@ -22945,9 +22966,9 @@
       <c r="E131" s="10">
         <v>6</v>
       </c>
-      <c r="F131" s="29">
+      <c r="F131" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>45093</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G131" s="26" t="s">
         <v>122</v>
@@ -23015,9 +23036,9 @@
       <c r="E132" s="10">
         <v>6</v>
       </c>
-      <c r="F132" s="29">
+      <c r="F132" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>45093</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G132" s="26" t="s">
         <v>122</v>
@@ -23085,9 +23106,9 @@
       <c r="E133" s="10">
         <v>6</v>
       </c>
-      <c r="F133" s="29">
+      <c r="F133" s="29" t="e">
         <f t="shared" si="1"/>
-        <v>45093</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G133" s="26" t="s">
         <v>122</v>
@@ -23153,9 +23174,9 @@
       <c r="E134" s="10">
         <v>6</v>
       </c>
-      <c r="F134" s="29">
+      <c r="F134" s="29" t="e">
         <f t="shared" ref="F134:F197" si="2">DATEVALUE(CONCATENATE(D134,"/",E134, "/",2023))</f>
-        <v>45093</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G134" s="26" t="s">
         <v>122</v>
@@ -23223,9 +23244,9 @@
       <c r="E135" s="10">
         <v>6</v>
       </c>
-      <c r="F135" s="29">
+      <c r="F135" s="29" t="e">
         <f t="shared" si="2"/>
-        <v>45093</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G135" s="26" t="s">
         <v>255</v>
@@ -23293,9 +23314,9 @@
       <c r="E136" s="10">
         <v>6</v>
       </c>
-      <c r="F136" s="29">
+      <c r="F136" s="29" t="e">
         <f t="shared" si="2"/>
-        <v>45093</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G136" s="26" t="s">
         <v>122</v>
@@ -23363,9 +23384,9 @@
       <c r="E137" s="10">
         <v>6</v>
       </c>
-      <c r="F137" s="29">
+      <c r="F137" s="29" t="e">
         <f t="shared" si="2"/>
-        <v>45093</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G137" s="26" t="s">
         <v>122</v>
@@ -23433,9 +23454,9 @@
       <c r="E138" s="10">
         <v>6</v>
       </c>
-      <c r="F138" s="29">
+      <c r="F138" s="29" t="e">
         <f t="shared" si="2"/>
-        <v>45093</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G138" s="26" t="s">
         <v>122</v>
@@ -23503,9 +23524,9 @@
       <c r="E139" s="10">
         <v>6</v>
       </c>
-      <c r="F139" s="29">
+      <c r="F139" s="29" t="e">
         <f t="shared" si="2"/>
-        <v>45093</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G139" s="26" t="s">
         <v>160</v>
@@ -23573,9 +23594,9 @@
       <c r="E140" s="10">
         <v>6</v>
       </c>
-      <c r="F140" s="29">
+      <c r="F140" s="29" t="e">
         <f t="shared" si="2"/>
-        <v>45096</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G140" s="26" t="s">
         <v>122</v>
@@ -23641,9 +23662,9 @@
       <c r="E141" s="10">
         <v>6</v>
       </c>
-      <c r="F141" s="29">
+      <c r="F141" s="29" t="e">
         <f t="shared" si="2"/>
-        <v>45096</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G141" s="26" t="s">
         <v>122</v>
@@ -35748,6 +35769,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CAA592-D3A8-4BAE-B7C1-71D59CB3BDDE}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
